--- a/report_folder/report_3.1_fr_oea.xlsx
+++ b/report_folder/report_3.1_fr_oea.xlsx
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>

--- a/report_folder/report_3.1_fr_oea.xlsx
+++ b/report_folder/report_3.1_fr_oea.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>85.0% der Karten</t>
+          <t>88.9% der Karten</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Team-Seite Aktualisieren</t>
+          <t>25.05. Recruiting Abend / Team Abend</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(25.0%)</t>
+          <t>(22.2%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -4562,7 +4562,7 @@
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -4577,7 +4577,7 @@
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="C39" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -4620,7 +4620,7 @@
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42">
@@ -4630,7 +4630,7 @@
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -4640,7 +4640,7 @@
         </is>
       </c>
       <c r="F43" s="14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row customHeight="1" ht="20" r="46">
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Stephanie Mäurer</t>
+          <t>Günther Kirchen</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Johanna Bracke</t>
+          <t>Oliver Großheim</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
@@ -4715,7 +4715,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Theresa Rinnert</t>
+          <t>Vanessa Raskob</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
@@ -4733,7 +4733,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Eric Pomp</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="C52" s="14" t="n">
@@ -4839,15 +4839,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Johanna Bracke</t>
+          <t>Theresa Schmid</t>
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -4857,15 +4857,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Johanna Bracke</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4880,11 +4880,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Svea Reimann</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="G72" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Svea Reimann</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
@@ -4908,11 +4908,11 @@
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>Eric Pomp</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="G74" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">

--- a/report_folder/report_3.1_fr_oea.xlsx
+++ b/report_folder/report_3.1_fr_oea.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>88.9% der Karten</t>
+          <t>51.7% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4413,11 +4413,11 @@
       <c r="A27" s="14" t="n"/>
       <c r="B27" s="14" t="inlineStr">
         <is>
-          <t>Plakatwerbung</t>
+          <t>Flyer/Faktsheet zur Weitergabe an Zeitungen</t>
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>254</v>
+        <v>163</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Blogartikel Klimawandel in Micani</t>
+          <t>Blutspendenkampagne Sommer 20 💩</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Öffentlichkeitswirksame Nachbereitung der Ausreise (Print)</t>
+          <t>Projektseiten auf Webseite überarbeiten ⭐️</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Flyer/Faktsheet zur Weitergabe an Zeitungen</t>
+          <t>Salesforce Einführung Fundraising Unternehmen</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>155</v>
+        <v>8</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>25.05. Recruiting Abend / Team Abend</t>
+          <t>Team-Seite Aktualisieren</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>119</v>
+        <v>8</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4516,7 +4516,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(22.2%)</t>
+          <t>(13.8%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Johanna Bracke</t>
+          <t>Eric Pomp</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -4573,11 +4573,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Svea Reimann</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Manuel Díaz Cordero</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40">
@@ -4616,27 +4616,27 @@
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Johanna Bracke</t>
+          <t>Eric Pomp</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Svea Reimann</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Manuel Díaz Cordero</t>
+          <t>Svea Reimann</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
@@ -4665,11 +4665,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Günther Kirchen</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Theresa Schmid</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
@@ -4695,16 +4695,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Oliver Großheim</t>
+          <t>Manuel Díaz Cordero</t>
         </is>
       </c>
       <c r="C50" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" s="14" t="inlineStr">
+        <is>
+          <t>Leonie Ziller</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
         <v>1</v>
-      </c>
-      <c r="E50" s="14" t="inlineStr">
-        <is>
-          <t>Aktivste Helfer</t>
-        </is>
       </c>
     </row>
     <row r="51">
@@ -4715,11 +4718,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Vanessa Raskob</t>
+          <t>Johanna Bracke</t>
         </is>
       </c>
       <c r="C51" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0</v>
@@ -4733,11 +4736,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Matthias Bausch</t>
+          <t>Lucia Navarro</t>
         </is>
       </c>
       <c r="C52" s="14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>0</v>
@@ -4768,11 +4771,11 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>René Vinnepand</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="14" t="inlineStr">
         <is>
@@ -4780,12 +4783,17 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Svea Reimann</t>
+        </is>
+      </c>
       <c r="B61" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="14" t="inlineStr">
         <is>
@@ -4793,12 +4801,17 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Stephanie Mäurer</t>
+        </is>
+      </c>
       <c r="B62" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="14" t="inlineStr">
         <is>
@@ -4839,15 +4852,15 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Peter Augustin</t>
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71">
@@ -4857,15 +4870,15 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Johanna Bracke</t>
+          <t>Eric Pomp</t>
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -4880,7 +4893,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Peter Augustin</t>
+          <t>Theresa Schmid</t>
         </is>
       </c>
       <c r="G72" s="35" t="n">
@@ -4898,7 +4911,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Svea Reimann</t>
+          <t>Larissa Böhrkircher</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
@@ -4908,11 +4921,11 @@
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>Christoph Netsch</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="G74" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">

--- a/report_folder/report_3.1_fr_oea.xlsx
+++ b/report_folder/report_3.1_fr_oea.xlsx
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="C17" s="13" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
@@ -4300,7 +4300,7 @@
         </is>
       </c>
       <c r="G17" s="35" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -4311,7 +4311,7 @@
       </c>
       <c r="C18" s="13" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -4325,7 +4325,7 @@
         </is>
       </c>
       <c r="G18" s="35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="D19" s="26" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="G19" s="35" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="D20" s="25" t="inlineStr">
         <is>
-          <t>51.7% der Karten</t>
+          <t>70.8% der Karten</t>
         </is>
       </c>
     </row>
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="14" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C21" s="36" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="C27" s="14" t="n">
-        <v>163</v>
+        <v>252</v>
       </c>
       <c r="D27" s="14" t="n"/>
       <c r="E27" s="35" t="n"/>
@@ -4428,11 +4428,11 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="14" t="inlineStr">
         <is>
-          <t>Blutspendenkampagne Sommer 20 💩</t>
+          <t>Projektseiten auf Webseite überarbeiten ⭐️</t>
         </is>
       </c>
       <c r="C28" s="14" t="n">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D28" s="14" t="n"/>
       <c r="E28" s="35" t="n"/>
@@ -4443,11 +4443,11 @@
       <c r="A29" s="14" t="n"/>
       <c r="B29" s="14" t="inlineStr">
         <is>
-          <t>Projektseiten auf Webseite überarbeiten ⭐️</t>
+          <t>Instagram Post Recruiting</t>
         </is>
       </c>
       <c r="C29" s="14" t="n">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D29" s="14" t="n"/>
       <c r="E29" s="35" t="n"/>
@@ -4458,11 +4458,11 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="14" t="inlineStr">
         <is>
-          <t>Salesforce Einführung Fundraising Unternehmen</t>
+          <t>Vorbereitungen - Centre Charlemagne ⭐️</t>
         </is>
       </c>
       <c r="C30" s="14" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D30" s="14" t="n"/>
       <c r="E30" s="35" t="n"/>
@@ -4473,11 +4473,11 @@
       <c r="A31" s="14" t="n"/>
       <c r="B31" s="14" t="inlineStr">
         <is>
-          <t>Team-Seite Aktualisieren</t>
+          <t>Datenbank Netzwerk ⭐️</t>
         </is>
       </c>
       <c r="C31" s="14" t="n">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D31" s="14" t="n"/>
       <c r="E31" s="35" t="n"/>
@@ -4512,11 +4512,11 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>(13.8%)</t>
+          <t>(4.2%)</t>
         </is>
       </c>
     </row>
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="C35" s="14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36">
@@ -4543,11 +4543,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="C36" s="14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -4558,11 +4558,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Eric Pomp</t>
+          <t>Celine Leonartz</t>
         </is>
       </c>
       <c r="C37" s="14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Matthias Bausch</t>
+          <t>Eric Pomp</t>
         </is>
       </c>
       <c r="C38" s="14" t="n">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Leonie Ziller</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="C39" s="14" t="n">
@@ -4600,13 +4600,13 @@
         </is>
       </c>
       <c r="F39" s="14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40">
       <c r="E40" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="F40" s="14" t="n">
@@ -4616,17 +4616,17 @@
     <row r="41">
       <c r="E41" t="inlineStr">
         <is>
-          <t>Eric Pomp</t>
+          <t>Celine Leonartz</t>
         </is>
       </c>
       <c r="F41" s="14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="E42" t="inlineStr">
         <is>
-          <t>Matthias Bausch</t>
+          <t>Eric Pomp</t>
         </is>
       </c>
       <c r="F42" s="14" t="n">
@@ -4636,7 +4636,7 @@
     <row r="43">
       <c r="E43" t="inlineStr">
         <is>
-          <t>Svea Reimann</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="F43" s="14" t="n">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="C48" s="14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4680,11 +4680,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Aktion Sodis Bot</t>
         </is>
       </c>
       <c r="C49" s="14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -4693,13 +4693,8 @@
           <t>3.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Manuel Díaz Cordero</t>
-        </is>
-      </c>
       <c r="C50" s="14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" s="14" t="inlineStr">
         <is>
@@ -4716,13 +4711,8 @@
           <t>4.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Johanna Bracke</t>
-        </is>
-      </c>
       <c r="C51" s="14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="14" t="n">
         <v>0</v>
@@ -4734,13 +4724,8 @@
           <t>5.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Lucia Navarro</t>
-        </is>
-      </c>
       <c r="C52" s="14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="14" t="n">
         <v>0</v>
@@ -4771,7 +4756,7 @@
     <row r="60">
       <c r="A60" s="14" t="inlineStr">
         <is>
-          <t>René Vinnepand</t>
+          <t>Leonie Ziller</t>
         </is>
       </c>
       <c r="B60" s="14" t="n">
@@ -4783,13 +4768,13 @@
         </is>
       </c>
       <c r="G60" s="35" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Svea Reimann</t>
+          <t>René Vinnepand</t>
         </is>
       </c>
       <c r="B61" s="14" t="n">
@@ -4801,13 +4786,13 @@
         </is>
       </c>
       <c r="G61" s="35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Stephanie Mäurer</t>
+          <t>Svea Reimann</t>
         </is>
       </c>
       <c r="B62" s="14" t="n">
@@ -4824,8 +4809,13 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Stephanie Mäurer</t>
+        </is>
+      </c>
       <c r="B63" s="14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -4852,7 +4842,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -4860,7 +4850,7 @@
         </is>
       </c>
       <c r="G70" s="35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="71">
@@ -4870,7 +4860,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -4878,7 +4868,7 @@
         </is>
       </c>
       <c r="G71" s="35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -4893,7 +4883,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Theresa Schmid</t>
+          <t>Larissa Böhrkircher</t>
         </is>
       </c>
       <c r="G72" s="35" t="n">
@@ -4907,11 +4897,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Larissa Böhrkircher</t>
+          <t>Matthias Bausch</t>
         </is>
       </c>
       <c r="G73" s="35" t="n">
@@ -4921,11 +4911,11 @@
     <row r="74">
       <c r="F74" t="inlineStr">
         <is>
-          <t>Matthias Bausch</t>
+          <t>Christoph Netsch</t>
         </is>
       </c>
       <c r="G74" s="35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
